--- a/xlsxmaps/level_0032.xlsx
+++ b/xlsxmaps/level_0032.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409ACB69-7244-4D99-A875-36AD78E8B34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4610374-DB90-4708-80E9-2B62A174DCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1550,7 +1550,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -2690,7 +2690,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="B1" sqref="B1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -2975,7 +2975,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -3068,13 +3068,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3169,19 +3169,19 @@
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -3260,7 +3260,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -3350,10 +3350,10 @@
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -3457,16 +3457,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -3545,7 +3545,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
       <c r="A5" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -3830,7 +3830,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>

--- a/xlsxmaps/level_0032.xlsx
+++ b/xlsxmaps/level_0032.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4610374-DB90-4708-80E9-2B62A174DCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E9A4E9-02D2-451D-AD23-BEC854882A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="层" sheetId="25" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2842277-178C-426E-8F96-40EA93B79A7D}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1834,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3696DB0-7A8C-497C-90FD-86688DA1382F}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>11000000</v>
+        <v>1200013</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>11000000</v>
+        <v>1200013</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>11000000</v>
       </c>
       <c r="C6" s="2">
-        <v>11000000</v>
+        <v>1200013</v>
       </c>
       <c r="D6" s="2">
         <v>11000000</v>

--- a/xlsxmaps/level_0032.xlsx
+++ b/xlsxmaps/level_0032.xlsx
@@ -5,27 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\28-37\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E9A4E9-02D2-451D-AD23-BEC854882A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35011BB9-9FD8-48CA-BF51-1B704F39461C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="层" sheetId="25" r:id="rId1"/>
-    <sheet name="层 (2)" sheetId="55" r:id="rId2"/>
-    <sheet name="层 (3)" sheetId="56" r:id="rId3"/>
-    <sheet name="层 (4)" sheetId="57" r:id="rId4"/>
-    <sheet name="层 (5)" sheetId="58" r:id="rId5"/>
-    <sheet name="层 (6)" sheetId="59" r:id="rId6"/>
-    <sheet name="层 (7)" sheetId="62" r:id="rId7"/>
-    <sheet name="层 (8)" sheetId="63" r:id="rId8"/>
-    <sheet name="层 (9)" sheetId="64" r:id="rId9"/>
-    <sheet name="层 (10)" sheetId="65" r:id="rId10"/>
+    <sheet name="base" sheetId="66" r:id="rId1"/>
+    <sheet name="层" sheetId="25" r:id="rId2"/>
+    <sheet name="层 (2)" sheetId="55" r:id="rId3"/>
+    <sheet name="层 (3)" sheetId="56" r:id="rId4"/>
+    <sheet name="层 (4)" sheetId="57" r:id="rId5"/>
+    <sheet name="层 (5)" sheetId="58" r:id="rId6"/>
+    <sheet name="层 (6)" sheetId="59" r:id="rId7"/>
+    <sheet name="层 (7)" sheetId="62" r:id="rId8"/>
+    <sheet name="层 (8)" sheetId="63" r:id="rId9"/>
+    <sheet name="层 (9)" sheetId="64" r:id="rId10"/>
+    <sheet name="层 (10)" sheetId="65" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>layerlevel</t>
+  </si>
+  <si>
+    <t>1,1,1,1,0,0,0,0,0,0</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -92,7 +104,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -100,6 +112,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1261,6 +1282,676 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C1B9E8-A7A0-47B8-962D-2B315CDF6765}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B7DF7E-0952-41AA-9706-50D1D9108B1A}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21000000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21000000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2842277-178C-426E-8F96-40EA93B79A7D}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>21000000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>21000000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -1545,297 +2236,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2842277-178C-426E-8F96-40EA93B79A7D}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3696DB0-7A8C-497C-90FD-86688DA1382F}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="16.28515625" style="1"/>
-    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>21000000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>21000000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3696DB0-7A8C-497C-90FD-86688DA1382F}">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1931,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>1200013</v>
+        <v>12000013</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1957,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>1200013</v>
+        <v>12000013</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1983,7 +2389,7 @@
         <v>11000000</v>
       </c>
       <c r="C6" s="2">
-        <v>1200013</v>
+        <v>12000013</v>
       </c>
       <c r="D6" s="2">
         <v>11000000</v>
@@ -2115,7 +2521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01DCB00-9CDF-4E08-B131-0C63335D0563}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -2400,7 +2806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18014C58-377C-4889-9C4A-EFB1DD114C69}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -2685,7 +3091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F2C729-1956-4E21-AAEF-F65168CE7A13}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -2970,7 +3376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ED1227-7749-4A5B-867C-368FE4E864C0}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -3255,7 +3661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE281B4-3F2C-472E-BC08-17008519798E}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -3540,7 +3946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1098F1BA-EB61-4C0E-93BE-D988C9F3EC98}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -3823,289 +4229,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B7DF7E-0952-41AA-9706-50D1D9108B1A}">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="16.28515625" style="1"/>
-    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>21000000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>21000000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>